--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H2">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I2">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J2">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>14.58323160860329</v>
+        <v>15.21011354985955</v>
       </c>
       <c r="R2">
-        <v>14.58323160860329</v>
+        <v>136.891021948736</v>
       </c>
       <c r="S2">
-        <v>0.644923690869444</v>
+        <v>0.5471371737225222</v>
       </c>
       <c r="T2">
-        <v>0.644923690869444</v>
+        <v>0.6031799925412143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H3">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I3">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J3">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>1.413807578219475</v>
+        <v>1.820394935136</v>
       </c>
       <c r="R3">
-        <v>1.413807578219475</v>
+        <v>16.383554416224</v>
       </c>
       <c r="S3">
-        <v>0.0625237276617471</v>
+        <v>0.06548312322614463</v>
       </c>
       <c r="T3">
-        <v>0.0625237276617471</v>
+        <v>0.072190506651907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.71390131936502</v>
+        <v>2.767962666666667</v>
       </c>
       <c r="H4">
-        <v>2.71390131936502</v>
+        <v>8.303888000000001</v>
       </c>
       <c r="I4">
-        <v>0.7757490524393041</v>
+        <v>0.6703478441031137</v>
       </c>
       <c r="J4">
-        <v>0.7757490524393041</v>
+        <v>0.717797521317681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>1.544459539368486</v>
+        <v>1.604794171085334</v>
       </c>
       <c r="R4">
-        <v>1.544459539368486</v>
+        <v>9.628765026512001</v>
       </c>
       <c r="S4">
-        <v>0.06830163390811313</v>
+        <v>0.05772754715444677</v>
       </c>
       <c r="T4">
-        <v>0.06830163390811313</v>
+        <v>0.04242702212455973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H5">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I5">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J5">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>4.215671932106229</v>
+        <v>0.7656996056844444</v>
       </c>
       <c r="R5">
-        <v>4.215671932106229</v>
+        <v>6.89129645116</v>
       </c>
       <c r="S5">
-        <v>0.1864323885759819</v>
+        <v>0.02754369431900165</v>
       </c>
       <c r="T5">
-        <v>0.1864323885759819</v>
+        <v>0.03036497268291719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.784525537659546</v>
+        <v>0.1393433333333333</v>
       </c>
       <c r="H6">
-        <v>0.784525537659546</v>
+        <v>0.41803</v>
       </c>
       <c r="I6">
-        <v>0.2242509475606959</v>
+        <v>0.03374630164453381</v>
       </c>
       <c r="J6">
-        <v>0.2242509475606959</v>
+        <v>0.03613498855432903</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>0.4086987771203449</v>
+        <v>0.09164137266000001</v>
       </c>
       <c r="R6">
-        <v>0.4086987771203449</v>
+        <v>0.82477235394</v>
       </c>
       <c r="S6">
-        <v>0.01807415056336237</v>
+        <v>0.003296517246165319</v>
       </c>
       <c r="T6">
-        <v>0.01807415056336237</v>
+        <v>0.003634176845315915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1393433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.41803</v>
+      </c>
+      <c r="I7">
+        <v>0.03374630164453381</v>
+      </c>
+      <c r="J7">
+        <v>0.03613498855432903</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5797745</v>
+      </c>
+      <c r="N7">
+        <v>1.159549</v>
+      </c>
+      <c r="O7">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P7">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q7">
+        <v>0.08078771141166667</v>
+      </c>
+      <c r="R7">
+        <v>0.48472626847</v>
+      </c>
+      <c r="S7">
+        <v>0.002906090079366844</v>
+      </c>
+      <c r="T7">
+        <v>0.002135839026095933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.208917</v>
+      </c>
+      <c r="I8">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J8">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N8">
+        <v>16.485172</v>
+      </c>
+      <c r="O8">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P8">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q8">
+        <v>2.214356075413777</v>
+      </c>
+      <c r="R8">
+        <v>19.929204678724</v>
+      </c>
+      <c r="S8">
+        <v>0.0796546666627862</v>
+      </c>
+      <c r="T8">
+        <v>0.08781362983736621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.208917</v>
+      </c>
+      <c r="I9">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J9">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.657666</v>
+      </c>
+      <c r="N9">
+        <v>1.972998</v>
+      </c>
+      <c r="O9">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P9">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q9">
+        <v>0.265021202574</v>
+      </c>
+      <c r="R9">
+        <v>2.385190823166</v>
+      </c>
+      <c r="S9">
+        <v>0.009533324736699373</v>
+      </c>
+      <c r="T9">
+        <v>0.0105098154900576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="H7">
-        <v>0.784525537659546</v>
-      </c>
-      <c r="I7">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="J7">
-        <v>0.2242509475606959</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="N7">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="O7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="P7">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="Q7">
-        <v>0.4464672100900021</v>
-      </c>
-      <c r="R7">
-        <v>0.4464672100900021</v>
-      </c>
-      <c r="S7">
-        <v>0.0197444084213516</v>
-      </c>
-      <c r="T7">
-        <v>0.0197444084213516</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4029723333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.208917</v>
+      </c>
+      <c r="I10">
+        <v>0.09759222482885171</v>
+      </c>
+      <c r="J10">
+        <v>0.1045001601754271</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5797745</v>
+      </c>
+      <c r="N10">
+        <v>1.159549</v>
+      </c>
+      <c r="O10">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P10">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q10">
+        <v>0.2336330830721667</v>
+      </c>
+      <c r="R10">
+        <v>1.401798498433</v>
+      </c>
+      <c r="S10">
+        <v>0.008404233429366139</v>
+      </c>
+      <c r="T10">
+        <v>0.006176714848003294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8188655</v>
+      </c>
+      <c r="H11">
+        <v>1.637731</v>
+      </c>
+      <c r="I11">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J11">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N11">
+        <v>16.485172</v>
+      </c>
+      <c r="O11">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P11">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q11">
+        <v>4.499712870788666</v>
+      </c>
+      <c r="R11">
+        <v>26.998277224732</v>
+      </c>
+      <c r="S11">
+        <v>0.161863366411811</v>
+      </c>
+      <c r="T11">
+        <v>0.118961933538183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8188655</v>
+      </c>
+      <c r="H12">
+        <v>1.637731</v>
+      </c>
+      <c r="I12">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J12">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.657666</v>
+      </c>
+      <c r="N12">
+        <v>1.972998</v>
+      </c>
+      <c r="O12">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P12">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q12">
+        <v>0.538539997923</v>
+      </c>
+      <c r="R12">
+        <v>3.231239987538</v>
+      </c>
+      <c r="S12">
+        <v>0.01937232430476129</v>
+      </c>
+      <c r="T12">
+        <v>0.01423774389172088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8188655</v>
+      </c>
+      <c r="H13">
+        <v>1.637731</v>
+      </c>
+      <c r="I13">
+        <v>0.1983136294235007</v>
+      </c>
+      <c r="J13">
+        <v>0.1415673299525628</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5797745</v>
+      </c>
+      <c r="N13">
+        <v>1.159549</v>
+      </c>
+      <c r="O13">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P13">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q13">
+        <v>0.47475733582975</v>
+      </c>
+      <c r="R13">
+        <v>1.899029343319</v>
+      </c>
+      <c r="S13">
+        <v>0.01707793870692847</v>
+      </c>
+      <c r="T13">
+        <v>0.008367652522658944</v>
       </c>
     </row>
   </sheetData>
